--- a/delete_list.xlsx
+++ b/delete_list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="982" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,13 +22,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t xml:space="preserve">dsfqwewq</t>
+    <t xml:space="preserve">TEST1M</t>
   </si>
   <si>
-    <t xml:space="preserve">lfvbiofd;l</t>
+    <t xml:space="preserve">TEST2M</t>
   </si>
   <si>
-    <t xml:space="preserve">123ndfhi</t>
+    <t xml:space="preserve">TEST3M</t>
   </si>
 </sst>
 </file>
@@ -43,6 +43,7 @@
       <sz val="10"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -63,6 +64,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -112,7 +114,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -136,15 +138,15 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.7040816326531"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
